--- a/cea/databases/SG_SLE/components/FEEDSTOCKS.xlsx
+++ b/cea/databases/SG_SLE/components/FEEDSTOCKS.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nimathia\Documents\GitHub\CityEnergyAnalyst\CityEnergyAnalyst\cea\databases\SG\components\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nimathia\Documents\GitHub\CityEnergyAnalyst\CityEnergyAnalyst\cea\databases\SG_SLE\components\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26CD7EDD-1DDE-4835-97E5-C07097DFBF2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1163EB2-781D-4048-AEBB-80BDA34DA60E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" tabRatio="993" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38440" yWindow="-5780" windowWidth="37820" windowHeight="15370" tabRatio="993" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="GRID" sheetId="28" r:id="rId1"/>
-    <sheet name="WOOD" sheetId="32" r:id="rId2"/>
-    <sheet name="WETBIOMASS" sheetId="33" r:id="rId3"/>
-    <sheet name="DRYBIOMASS" sheetId="34" r:id="rId4"/>
-    <sheet name="COAL" sheetId="31" r:id="rId5"/>
-    <sheet name="OIL" sheetId="30" r:id="rId6"/>
-    <sheet name="NATURALGAS" sheetId="22" r:id="rId7"/>
-    <sheet name="BIOGAS" sheetId="27" r:id="rId8"/>
-    <sheet name="HYDROGEN" sheetId="36" r:id="rId9"/>
-    <sheet name="SOLAR" sheetId="29" r:id="rId10"/>
-    <sheet name="ENERGY_CARRIERS" sheetId="35" r:id="rId11"/>
+    <sheet name="GRID" sheetId="1" r:id="rId1"/>
+    <sheet name="WOOD" sheetId="2" r:id="rId2"/>
+    <sheet name="WETBIOMASS" sheetId="3" r:id="rId3"/>
+    <sheet name="DRYBIOMASS" sheetId="4" r:id="rId4"/>
+    <sheet name="COAL" sheetId="5" r:id="rId5"/>
+    <sheet name="OIL" sheetId="6" r:id="rId6"/>
+    <sheet name="NATURALGAS" sheetId="7" r:id="rId7"/>
+    <sheet name="BIOGAS" sheetId="8" r:id="rId8"/>
+    <sheet name="HYDROGEN" sheetId="9" r:id="rId9"/>
+    <sheet name="SOLAR" sheetId="10" r:id="rId10"/>
+    <sheet name="ENERGY_CARRIERS" sheetId="11" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="__xlfn_AGGREGATE">#N/A</definedName>
@@ -38,6 +38,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -50,39 +52,39 @@
     <author>Jimeno</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t>green house gas emissions due to operation in kg CO2-eq / MJ(resource).yr</t>
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t>Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr</t>
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t>Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr</t>
@@ -99,63 +101,43 @@
     <author>Jimeno</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000001000000}">
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t>green house gas emissions due to operation in kg CO2-eq / MJ(resource).yr</t>
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000002000000}">
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t>Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr</t>
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000003000000}">
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t>Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr</t>
         </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={F94F9467-C88C-46C1-8422-4A69C2D3AF2D}</author>
-  </authors>
-  <commentList>
-    <comment ref="I24" authorId="0" shapeId="0" xr:uid="{F94F9467-C88C-46C1-8422-4A69C2D3AF2D}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Question by Zhongming: Shall we change all numbers under Tab Solar to 0?
-Reply:
-    The solar energy here describes actual radiation, while the solar-tab in the original feedstock expresses electricity from photovoltaics. So that does not apply here. So merging the two doesn't make sense, but we could consider differentiating their names a bit more.</t>
       </text>
     </comment>
   </commentList>
@@ -168,39 +150,39 @@
     <author>Jimeno</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t>green house gas emissions due to operation in kg CO2-eq / MJ(resource).yr</t>
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t>Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr</t>
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000003000000}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t>Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr</t>
@@ -217,39 +199,39 @@
     <author>Jimeno</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t>green house gas emissions due to operation in kg CO2-eq / MJ(resource).yr</t>
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000002000000}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t>Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr</t>
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000003000000}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t>Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr</t>
@@ -266,39 +248,39 @@
     <author>Jimeno</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000001000000}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t>green house gas emissions due to operation in kg CO2-eq / MJ(resource).yr</t>
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000002000000}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t>Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr</t>
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000003000000}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t>Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr</t>
@@ -315,39 +297,39 @@
     <author>Jimeno</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t>green house gas emissions due to operation in kg CO2-eq / MJ(resource).yr</t>
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t>Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr</t>
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t>Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr</t>
@@ -364,39 +346,39 @@
     <author>Jimeno</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t>green house gas emissions due to operation in kg CO2-eq / MJ(resource).yr</t>
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t>Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr</t>
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t>Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr</t>
@@ -413,39 +395,39 @@
     <author>Jimeno</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t>green house gas emissions due to operation in kg CO2-eq / MJ(resource).yr</t>
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t>Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr</t>
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000003000000}">
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t>Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr</t>
@@ -462,39 +444,39 @@
     <author>Jimeno</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t>green house gas emissions due to operation in kg CO2-eq / MJ(resource).yr</t>
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000002000000}">
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t>Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr</t>
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000003000000}">
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t>Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr</t>
@@ -511,39 +493,39 @@
     <author>Jimeno</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{3828BCF3-8C9A-2249-BF16-5D1797CD4A2A}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000001000000}">
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t>green house gas emissions due to operation in kg CO2-eq / MJ(resource).yr</t>
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{58D6C87A-A51A-C347-B58D-9D89200B26E7}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000002000000}">
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t>Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr</t>
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{C76A573F-DBA3-E449-A506-5D9556FEDA95}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000003000000}">
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t>Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr</t>
@@ -555,98 +537,110 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="158">
+  <si>
+    <t>hour</t>
+  </si>
+  <si>
+    <t>GHG_kgCO2MJ</t>
+  </si>
+  <si>
+    <t>Opex_var_buy_USD2015kWh</t>
+  </si>
+  <si>
+    <t>Opex_var_sell_USD2015kWh</t>
+  </si>
   <si>
     <t>reference</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>https://www.ema.gov.sg/Residential_Electricity_Tariffs.</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>KBOB 2009/1:2016, ID 41.006 Stückholz (average), cost from CEA</t>
+  </si>
+  <si>
+    <t>KBOB 2009/1:2016, ID 42.001 Kehrichtverbrennung, cost from CEA</t>
+  </si>
+  <si>
+    <t>KBOB 2009/1:2016, ID 41.004/41.005 (average), cost from CEA</t>
+  </si>
+  <si>
     <t>KBOB 2009/1:2016, ID 41.001 Heizöl, cost from CEA</t>
   </si>
   <si>
-    <t>KBOB 2009/1:2016, ID 41.004/41.005 (average), cost from CEA</t>
-  </si>
-  <si>
-    <t>KBOB 2009/1:2016, ID 41.006 Stückholz (average), cost from CEA</t>
-  </si>
-  <si>
-    <t>KBOB 2009/1:2016, ID 42.001 Kehrichtverbrennung, cost from CEA</t>
-  </si>
-  <si>
-    <t>hour</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
     <t>PEN and CO2 from ecoinvent 3.4 - market for natural gas, burned in gas motor, for storage_GLO_2017_Allocation, cut-off,cost from Werke am Zurich see</t>
   </si>
   <si>
@@ -725,18 +719,6 @@
     <t>PEN and CO2 zero equivalent due to renewable technology, cost from CEA, costs in USD-2038</t>
   </si>
   <si>
-    <t>GHG_kgCO2MJ</t>
-  </si>
-  <si>
-    <t>Opex_var_buy_USD2015kWh</t>
-  </si>
-  <si>
-    <t>Opex_var_sell_USD2015kWh</t>
-  </si>
-  <si>
-    <t>https://www.ema.gov.sg/Residential_Electricity_Tariffs.</t>
-  </si>
-  <si>
     <t>description</t>
   </si>
   <si>
@@ -758,6 +740,9 @@
     <t>mean_qual</t>
   </si>
   <si>
+    <t>cost_and_ghg_tab</t>
+  </si>
+  <si>
     <t>Hot air</t>
   </si>
   <si>
@@ -776,6 +761,9 @@
     <t>°C</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>Warm air</t>
   </si>
   <si>
@@ -842,22 +830,34 @@
     <t>T0W</t>
   </si>
   <si>
+    <t>Electricity - direct current (low voltage)</t>
+  </si>
+  <si>
+    <t>E30DC</t>
+  </si>
+  <si>
+    <t>electrical</t>
+  </si>
+  <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <t>voltage</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
     <t>Electricity - alternate current (low voltage)</t>
   </si>
   <si>
     <t>E230AC</t>
   </si>
   <si>
-    <t>electrical</t>
-  </si>
-  <si>
     <t>AC</t>
   </si>
   <si>
-    <t>voltage</t>
-  </si>
-  <si>
-    <t>V</t>
+    <t>GRID</t>
   </si>
   <si>
     <t>voltage: https://www.ntu.edu.sg/docs/librariesprovider60/publications/grid-2-0.pdf?sfvrsn=c1803649_2#:~:text=Electricity%20Grid%20in%20Singapore,-The%20electricity%20grid&amp;text=The%20transmission%20%26%20distribution%20network%20of,spanning%20more%20than%2015%2C000%20kilometres. 
@@ -901,7 +901,7 @@
     <t>chemical composition</t>
   </si>
   <si>
-    <t>-</t>
+    <t>WOOD</t>
   </si>
   <si>
     <t>Wet biomass</t>
@@ -910,12 +910,18 @@
     <t>Cwbm</t>
   </si>
   <si>
+    <t>WETBIOMASS</t>
+  </si>
+  <si>
     <t>Dry biomass</t>
   </si>
   <si>
     <t>Cdbm</t>
   </si>
   <si>
+    <t>DRYBIOMASS</t>
+  </si>
+  <si>
     <t>Coal</t>
   </si>
   <si>
@@ -925,30 +931,45 @@
     <t>fossil</t>
   </si>
   <si>
+    <t>COAL</t>
+  </si>
+  <si>
     <t>Oil</t>
   </si>
   <si>
     <t>Coil</t>
   </si>
   <si>
+    <t>OIL</t>
+  </si>
+  <si>
     <t>Natural gas</t>
   </si>
   <si>
     <t>Cgas</t>
   </si>
   <si>
+    <t>NATURALGAS</t>
+  </si>
+  <si>
     <t>Biogas</t>
   </si>
   <si>
     <t>Cbig</t>
   </si>
   <si>
+    <t>BIOGAS</t>
+  </si>
+  <si>
     <t>Hydrogen</t>
   </si>
   <si>
     <t>Chyd</t>
   </si>
   <si>
+    <t>HYDROGEN</t>
+  </si>
+  <si>
     <t>https://file.go.gov.sg/studyofhydrogenimportsanddownstreamapplicationsforsingapore.pdf</t>
   </si>
   <si>
@@ -976,45 +997,35 @@
     <t>Infrared light</t>
   </si>
   <si>
-    <t>cost_and_ghg_tab</t>
-  </si>
-  <si>
-    <t>GRID</t>
-  </si>
-  <si>
-    <t>WOOD</t>
-  </si>
-  <si>
-    <t>WETBIOMASS</t>
-  </si>
-  <si>
-    <t>DRYBIOMASS</t>
-  </si>
-  <si>
-    <t>COAL</t>
-  </si>
-  <si>
-    <t>OIL</t>
-  </si>
-  <si>
-    <t>NATURALGAS</t>
-  </si>
-  <si>
-    <t>BIOGAS</t>
-  </si>
-  <si>
-    <t>HYDROGEN</t>
+    <t>Ground Water</t>
+  </si>
+  <si>
+    <t>T27GW</t>
+  </si>
+  <si>
+    <t>water sink</t>
+  </si>
+  <si>
+    <t>Bottom Lake Water</t>
+  </si>
+  <si>
+    <t>T27LW</t>
+  </si>
+  <si>
+    <t>Sewage Water</t>
+  </si>
+  <si>
+    <t>T26SW</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1036,12 +1047,6 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
@@ -1067,25 +1072,11 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1104,20 +1095,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF5B9BD5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1153,24 +1132,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1183,62 +1176,35 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Comma" xfId="5" builtinId="3"/>
+  <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
@@ -1324,12 +1290,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Mathias Niffeler" id="{E50E1AEE-1591-4724-8180-022D8812DE3E}" userId="S::mathias.niffeler@sec.ethz.ch::fd5e4ee7-4d5b-48a8-bbb6-57b4fcfb886f" providerId="AD"/>
-</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1678,23 +1638,12 @@
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="I24" dT="2024-04-09T04:55:21.05" personId="{E50E1AEE-1591-4724-8180-022D8812DE3E}" id="{F94F9467-C88C-46C1-8422-4A69C2D3AF2D}">
-    <text>Question by Zhongming: Shall we change all numbers under Tab Solar to 0?</text>
-  </threadedComment>
-  <threadedComment ref="I24" dT="2024-04-09T04:56:09.61" personId="{E50E1AEE-1591-4724-8180-022D8812DE3E}" id="{53BA1200-8A82-4429-9BA1-AEC620E5E348}" parentId="{F94F9467-C88C-46C1-8422-4A69C2D3AF2D}">
-    <text>The solar energy here describes actual radiation, while the solar-tab in the original feedstock expresses electricity from photovoltaics. So that does not apply here. So merging the two doesn't make sense, but we could consider differentiating their names a bit more.</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1708,38 +1657,36 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="8">
+        <v>0.1158</v>
+      </c>
+      <c r="C2" s="1">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>7.8E-2</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>6</v>
-      </c>
-      <c r="B2" s="8">
-        <v>0.13600000000000001</v>
-      </c>
-      <c r="C2" s="2">
-        <f>0.24*0.742</f>
-        <v>0.17807999999999999</v>
-      </c>
-      <c r="D2" s="2">
-        <f>0.24*0.742</f>
-        <v>0.17807999999999999</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -1747,18 +1694,16 @@
         <v>7</v>
       </c>
       <c r="B3" s="8">
-        <v>0.13600000000000001</v>
-      </c>
-      <c r="C3" s="2">
-        <f t="shared" ref="C3:D25" si="0">0.24*0.742</f>
-        <v>0.17807999999999999</v>
-      </c>
-      <c r="D3" s="2">
-        <f t="shared" si="0"/>
-        <v>0.17807999999999999</v>
+        <v>0.1158</v>
+      </c>
+      <c r="C3" s="1">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -1766,18 +1711,16 @@
         <v>8</v>
       </c>
       <c r="B4" s="8">
-        <v>0.13600000000000001</v>
-      </c>
-      <c r="C4" s="2">
-        <f t="shared" si="0"/>
-        <v>0.17807999999999999</v>
-      </c>
-      <c r="D4" s="2">
-        <f t="shared" si="0"/>
-        <v>0.17807999999999999</v>
+        <v>0.1158</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="D4" s="1">
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -1785,18 +1728,16 @@
         <v>9</v>
       </c>
       <c r="B5" s="8">
-        <v>0.13600000000000001</v>
-      </c>
-      <c r="C5" s="2">
-        <f t="shared" si="0"/>
-        <v>0.17807999999999999</v>
-      </c>
-      <c r="D5" s="2">
-        <f t="shared" si="0"/>
-        <v>0.17807999999999999</v>
+        <v>0.1158</v>
+      </c>
+      <c r="C5" s="1">
+        <v>7.8E-2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>6.3E-2</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -1804,18 +1745,16 @@
         <v>10</v>
       </c>
       <c r="B6" s="8">
-        <v>0.13600000000000001</v>
-      </c>
-      <c r="C6" s="2">
-        <f t="shared" si="0"/>
-        <v>0.17807999999999999</v>
-      </c>
-      <c r="D6" s="2">
-        <f t="shared" si="0"/>
-        <v>0.17807999999999999</v>
+        <v>0.1158</v>
+      </c>
+      <c r="C6" s="1">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>6.3E-2</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -1823,18 +1762,16 @@
         <v>11</v>
       </c>
       <c r="B7" s="8">
-        <v>0.13600000000000001</v>
-      </c>
-      <c r="C7" s="2">
-        <f t="shared" si="0"/>
-        <v>0.17807999999999999</v>
-      </c>
-      <c r="D7" s="2">
-        <f t="shared" si="0"/>
-        <v>0.17807999999999999</v>
+        <v>0.1158</v>
+      </c>
+      <c r="C7" s="1">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -1842,18 +1779,16 @@
         <v>12</v>
       </c>
       <c r="B8" s="8">
-        <v>0.13600000000000001</v>
-      </c>
-      <c r="C8" s="2">
-        <f t="shared" si="0"/>
-        <v>0.17807999999999999</v>
-      </c>
-      <c r="D8" s="2">
-        <f t="shared" si="0"/>
-        <v>0.17807999999999999</v>
+        <v>0.1158</v>
+      </c>
+      <c r="C8" s="1">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -1861,18 +1796,16 @@
         <v>13</v>
       </c>
       <c r="B9" s="8">
-        <v>0.13600000000000001</v>
-      </c>
-      <c r="C9" s="2">
-        <f t="shared" si="0"/>
-        <v>0.17807999999999999</v>
-      </c>
-      <c r="D9" s="2">
-        <f t="shared" si="0"/>
-        <v>0.17807999999999999</v>
+        <v>0.1158</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.152</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.121</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -1880,18 +1813,16 @@
         <v>14</v>
       </c>
       <c r="B10" s="8">
-        <v>0.13600000000000001</v>
-      </c>
-      <c r="C10" s="2">
-        <f t="shared" si="0"/>
-        <v>0.17807999999999999</v>
-      </c>
-      <c r="D10" s="2">
-        <f t="shared" si="0"/>
-        <v>0.17807999999999999</v>
+        <v>0.1158</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.155</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -1899,18 +1830,16 @@
         <v>15</v>
       </c>
       <c r="B11" s="8">
-        <v>0.13600000000000001</v>
-      </c>
-      <c r="C11" s="2">
-        <f t="shared" si="0"/>
-        <v>0.17807999999999999</v>
-      </c>
-      <c r="D11" s="2">
-        <f t="shared" si="0"/>
-        <v>0.17807999999999999</v>
+        <v>0.1158</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.185</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
@@ -1918,18 +1847,16 @@
         <v>16</v>
       </c>
       <c r="B12" s="8">
-        <v>0.13600000000000001</v>
-      </c>
-      <c r="C12" s="2">
-        <f t="shared" si="0"/>
-        <v>0.17807999999999999</v>
-      </c>
-      <c r="D12" s="2">
-        <f t="shared" si="0"/>
-        <v>0.17807999999999999</v>
+        <v>0.1158</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.2</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
@@ -1937,18 +1864,16 @@
         <v>17</v>
       </c>
       <c r="B13" s="8">
-        <v>0.13600000000000001</v>
-      </c>
-      <c r="C13" s="2">
-        <f t="shared" si="0"/>
-        <v>0.17807999999999999</v>
-      </c>
-      <c r="D13" s="2">
-        <f t="shared" si="0"/>
-        <v>0.17807999999999999</v>
+        <v>0.1158</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.19</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
@@ -1956,18 +1881,16 @@
         <v>18</v>
       </c>
       <c r="B14" s="8">
-        <v>0.13600000000000001</v>
-      </c>
-      <c r="C14" s="2">
-        <f t="shared" si="0"/>
-        <v>0.17807999999999999</v>
-      </c>
-      <c r="D14" s="2">
-        <f t="shared" si="0"/>
-        <v>0.17807999999999999</v>
+        <v>0.1158</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.17599999999999999</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
@@ -1975,18 +1898,16 @@
         <v>19</v>
       </c>
       <c r="B15" s="8">
-        <v>0.13600000000000001</v>
-      </c>
-      <c r="C15" s="2">
-        <f t="shared" si="0"/>
-        <v>0.17807999999999999</v>
-      </c>
-      <c r="D15" s="2">
-        <f t="shared" si="0"/>
-        <v>0.17807999999999999</v>
+        <v>0.1158</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.193</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
@@ -1994,18 +1915,16 @@
         <v>20</v>
       </c>
       <c r="B16" s="8">
-        <v>0.13600000000000001</v>
-      </c>
-      <c r="C16" s="2">
-        <f t="shared" si="0"/>
-        <v>0.17807999999999999</v>
-      </c>
-      <c r="D16" s="2">
-        <f t="shared" si="0"/>
-        <v>0.17807999999999999</v>
+        <v>0.1158</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.247</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.19700000000000001</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
@@ -2013,18 +1932,16 @@
         <v>21</v>
       </c>
       <c r="B17" s="8">
-        <v>0.13600000000000001</v>
-      </c>
-      <c r="C17" s="2">
-        <f t="shared" si="0"/>
-        <v>0.17807999999999999</v>
-      </c>
-      <c r="D17" s="2">
-        <f t="shared" si="0"/>
-        <v>0.17807999999999999</v>
+        <v>0.1158</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.21299999999999999</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
@@ -2032,18 +1949,16 @@
         <v>22</v>
       </c>
       <c r="B18" s="8">
-        <v>0.13600000000000001</v>
-      </c>
-      <c r="C18" s="2">
-        <f t="shared" si="0"/>
-        <v>0.17807999999999999</v>
-      </c>
-      <c r="D18" s="2">
-        <f t="shared" si="0"/>
-        <v>0.17807999999999999</v>
+        <v>0.1158</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.20599999999999999</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
@@ -2051,18 +1966,16 @@
         <v>23</v>
       </c>
       <c r="B19" s="8">
-        <v>0.13600000000000001</v>
-      </c>
-      <c r="C19" s="2">
-        <f t="shared" si="0"/>
-        <v>0.17807999999999999</v>
-      </c>
-      <c r="D19" s="2">
-        <f t="shared" si="0"/>
-        <v>0.17807999999999999</v>
+        <v>0.1158</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.188</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
@@ -2070,18 +1983,16 @@
         <v>24</v>
       </c>
       <c r="B20" s="8">
-        <v>0.13600000000000001</v>
-      </c>
-      <c r="C20" s="2">
-        <f t="shared" si="0"/>
-        <v>0.17807999999999999</v>
-      </c>
-      <c r="D20" s="2">
-        <f t="shared" si="0"/>
-        <v>0.17807999999999999</v>
+        <v>0.1158</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.219</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.17499999999999999</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
@@ -2089,18 +2000,16 @@
         <v>25</v>
       </c>
       <c r="B21" s="8">
-        <v>0.13600000000000001</v>
-      </c>
-      <c r="C21" s="2">
-        <f t="shared" si="0"/>
-        <v>0.17807999999999999</v>
-      </c>
-      <c r="D21" s="2">
-        <f t="shared" si="0"/>
-        <v>0.17807999999999999</v>
+        <v>0.1158</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.219</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.17499999999999999</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
@@ -2108,18 +2017,16 @@
         <v>26</v>
       </c>
       <c r="B22" s="8">
-        <v>0.13600000000000001</v>
-      </c>
-      <c r="C22" s="2">
-        <f t="shared" si="0"/>
-        <v>0.17807999999999999</v>
-      </c>
-      <c r="D22" s="2">
-        <f t="shared" si="0"/>
-        <v>0.17807999999999999</v>
+        <v>0.1158</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.19400000000000001</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
@@ -2127,18 +2034,16 @@
         <v>27</v>
       </c>
       <c r="B23" s="8">
-        <v>0.13600000000000001</v>
-      </c>
-      <c r="C23" s="2">
-        <f t="shared" si="0"/>
-        <v>0.17807999999999999</v>
-      </c>
-      <c r="D23" s="2">
-        <f t="shared" si="0"/>
-        <v>0.17807999999999999</v>
+        <v>0.1158</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.13700000000000001</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
@@ -2146,18 +2051,16 @@
         <v>28</v>
       </c>
       <c r="B24" s="8">
-        <v>0.13600000000000001</v>
-      </c>
-      <c r="C24" s="2">
-        <f t="shared" si="0"/>
-        <v>0.17807999999999999</v>
-      </c>
-      <c r="D24" s="2">
-        <f t="shared" si="0"/>
-        <v>0.17807999999999999</v>
+        <v>0.1158</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.113</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
@@ -2165,35 +2068,52 @@
         <v>29</v>
       </c>
       <c r="B25" s="8">
-        <v>0.13600000000000001</v>
-      </c>
-      <c r="C25" s="2">
-        <f t="shared" si="0"/>
-        <v>0.17807999999999999</v>
-      </c>
-      <c r="D25" s="2">
-        <f t="shared" si="0"/>
-        <v>0.17807999999999999</v>
+        <v>0.1158</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.106</v>
+      </c>
+      <c r="D25" s="1">
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="E3:E25" r:id="rId2" display="https://www.ema.gov.sg/Residential_Electricity_Tariffs." xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="E7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="E8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="E10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="E11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="E12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="E14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="E15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="E16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="E17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="E18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="E19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="E20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="E21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="E22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="E23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="E24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="E25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="A2:A25" numberStoredAsText="1"/>
-  </ignoredErrors>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId25"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2211,24 +2131,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="8">
         <v>1E-4</v>
@@ -2240,7 +2160,7 @@
         <v>0.15</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -2257,7 +2177,7 @@
         <v>0.15</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -2274,7 +2194,7 @@
         <v>0.15</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -2291,7 +2211,7 @@
         <v>0.15</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -2308,7 +2228,7 @@
         <v>0.15</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -2325,7 +2245,7 @@
         <v>0.15</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -2342,7 +2262,7 @@
         <v>0.15</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -2359,7 +2279,7 @@
         <v>0.15</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -2376,7 +2296,7 @@
         <v>0.15</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -2393,7 +2313,7 @@
         <v>0.15</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
@@ -2410,7 +2330,7 @@
         <v>0.15</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
@@ -2427,7 +2347,7 @@
         <v>0.15</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
@@ -2444,7 +2364,7 @@
         <v>0.15</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
@@ -2461,7 +2381,7 @@
         <v>0.15</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
@@ -2478,7 +2398,7 @@
         <v>0.15</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
@@ -2495,7 +2415,7 @@
         <v>0.15</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
@@ -2512,7 +2432,7 @@
         <v>0.15</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
@@ -2529,7 +2449,7 @@
         <v>0.15</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
@@ -2546,7 +2466,7 @@
         <v>0.15</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
@@ -2563,7 +2483,7 @@
         <v>0.15</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
@@ -2580,7 +2500,7 @@
         <v>0.15</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
@@ -2597,7 +2517,7 @@
         <v>0.15</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
@@ -2614,7 +2534,7 @@
         <v>0.15</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
@@ -2631,7 +2551,7 @@
         <v>0.15</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2641,459 +2561,463 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDCBFA07-C74E-3041-BA3F-0C22B6E59680}">
-  <dimension ref="A1:I26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="132" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="139.36328125" customWidth="1"/>
+    <col min="1" max="1" width="40.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="52.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="I1" s="24" t="s">
-        <v>0</v>
+      <c r="H1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="F2" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="G2" s="16">
+      <c r="F2" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="13">
         <v>100</v>
       </c>
-      <c r="H2" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="I2" s="14"/>
+      <c r="H2" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" s="17"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="G3" s="13">
+        <v>35</v>
+      </c>
+      <c r="H3" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="G3" s="16">
-        <v>35</v>
-      </c>
-      <c r="H3" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="I3" s="14"/>
+      <c r="I3" s="17"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="E4" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="E4" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="G4" s="16">
+      <c r="F4" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4" s="13">
         <v>25</v>
       </c>
-      <c r="H4" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="I4" s="14"/>
+      <c r="H4" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="I4" s="17"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="E5" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="E5" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="G5" s="18">
+      <c r="F5" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" s="13">
         <v>10</v>
       </c>
-      <c r="H5" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="I5" s="14"/>
+      <c r="H5" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="I5" s="17"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="F6" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="G6" s="18">
+      <c r="F6" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" s="13">
         <v>0</v>
       </c>
-      <c r="H6" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="I6" s="14"/>
+      <c r="H6" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="F7" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="G7" s="16">
+      <c r="F7" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="G7" s="13">
         <v>100</v>
       </c>
-      <c r="H7" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="I7" s="14"/>
+      <c r="H7" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" s="17"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B8" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="F8" s="15" t="s">
+      <c r="E8" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="G8" s="16">
+      <c r="F8" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" s="13">
         <v>60</v>
       </c>
-      <c r="H8" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="I8" s="14"/>
+      <c r="H8" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="I8" s="17"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="F9" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="G9" s="16">
+      <c r="F9" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" s="13">
         <v>30</v>
       </c>
-      <c r="H9" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="I9" s="14"/>
+      <c r="H9" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="I9" s="17"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="F10" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="G10" s="16">
+      <c r="F10" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" s="13">
         <v>20</v>
       </c>
-      <c r="H10" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="I10" s="14"/>
+      <c r="H10" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="I10" s="17"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="F11" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="G11" s="18">
+      <c r="F11" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="13">
         <v>10</v>
       </c>
-      <c r="H11" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="I11" s="14"/>
+      <c r="H11" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="I11" s="17"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="F12" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="G12" s="16">
+      <c r="F12" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="13">
         <v>0</v>
       </c>
-      <c r="H12" s="16" t="s">
+      <c r="H12" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="I12" s="17"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="G13" s="13">
+        <v>30</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="I13" s="17"/>
+    </row>
+    <row r="14" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="G14" s="13">
+        <v>230</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="I14" s="17" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="G15" s="13">
+        <v>22000</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="I15" s="17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="G16" s="13">
+        <v>66000</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="I16" s="17" t="s">
         <v>113</v>
-      </c>
-      <c r="I12" s="14"/>
-    </row>
-    <row r="13" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="F13" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="G13" s="23">
-        <v>230</v>
-      </c>
-      <c r="H13" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="I13" s="21" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="97" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="G14" s="16">
-        <v>22000</v>
-      </c>
-      <c r="H14" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="I14" s="21" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="71" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="G15" s="16">
-        <v>66000</v>
-      </c>
-      <c r="H15" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="I15" s="21" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="F16" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="G16" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="H16" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
@@ -3104,300 +3028,409 @@
         <v>115</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="F17" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="G17" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="H17" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>4</v>
+        <v>117</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="I17" s="17" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="D18" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="C18" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="F18" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="G18" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="H18" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>4</v>
+      <c r="E18" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="I18" s="17" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="E19" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="B19" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="F19" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="G19" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="H19" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>2</v>
+      <c r="F19" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="I19" s="17" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="12" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="F20" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="G20" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="H20" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>1</v>
+        <v>128</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="I20" s="17" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="12" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="G21" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="H21" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+        <v>128</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="I21" s="17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A22" s="12" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="E22" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="G22" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="H22" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="B23" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="C23" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="E23" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="F23" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="G23" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="H23" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E22" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="I22" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="26.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="I23" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A24" s="12" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="E24" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="F24" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="G24" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="H24" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="I24" s="26" t="s">
-        <v>134</v>
+        <v>117</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="I24" s="17" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="12" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="F25" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="G25" s="18">
-        <v>200</v>
-      </c>
-      <c r="H25" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="I25" s="21" t="s">
-        <v>134</v>
+        <v>74</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="I25" s="17" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="E26" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="F26" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="G26" s="18">
+        <v>148</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="G26" s="19">
+        <v>200</v>
+      </c>
+      <c r="H26" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="I26" s="20" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="G27" s="13">
         <v>1500</v>
       </c>
-      <c r="H26" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="I26" s="21" t="s">
-        <v>134</v>
-      </c>
+      <c r="H27" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="I27" s="17" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="G28" s="13">
+        <v>27</v>
+      </c>
+      <c r="H28" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="I28" s="17"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="G29" s="13">
+        <v>27</v>
+      </c>
+      <c r="H29" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="I29" s="17"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="G30" s="13">
+        <v>26</v>
+      </c>
+      <c r="H30" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="I30" s="17"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3406,44 +3439,41 @@
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.6328125" customWidth="1"/>
+    <col min="5" max="5" width="55.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="9">
-        <f t="shared" ref="B2:B25" si="0">0.027/3.6</f>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C2" s="2">
-        <f t="shared" ref="C2:D17" si="1">0.2*1.04</f>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D2" s="2">
-        <f t="shared" si="1"/>
-        <v>0.20800000000000002</v>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -3451,19 +3481,16 @@
         <v>7</v>
       </c>
       <c r="B3" s="9">
-        <f t="shared" si="0"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C3" s="2">
-        <f t="shared" si="1"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D3" s="2">
-        <f t="shared" si="1"/>
-        <v>0.20800000000000002</v>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -3471,19 +3498,16 @@
         <v>8</v>
       </c>
       <c r="B4" s="9">
-        <f t="shared" si="0"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C4" s="2">
-        <f t="shared" si="1"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D4" s="2">
-        <f t="shared" si="1"/>
-        <v>0.20800000000000002</v>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -3491,19 +3515,16 @@
         <v>9</v>
       </c>
       <c r="B5" s="9">
-        <f t="shared" si="0"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C5" s="2">
-        <f t="shared" si="1"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D5" s="2">
-        <f t="shared" si="1"/>
-        <v>0.20800000000000002</v>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -3511,19 +3532,16 @@
         <v>10</v>
       </c>
       <c r="B6" s="9">
-        <f t="shared" si="0"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C6" s="2">
-        <f t="shared" si="1"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D6" s="2">
-        <f t="shared" si="1"/>
-        <v>0.20800000000000002</v>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -3531,19 +3549,16 @@
         <v>11</v>
       </c>
       <c r="B7" s="9">
-        <f t="shared" si="0"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C7" s="2">
-        <f t="shared" si="1"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D7" s="2">
-        <f t="shared" si="1"/>
-        <v>0.20800000000000002</v>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -3551,19 +3566,16 @@
         <v>12</v>
       </c>
       <c r="B8" s="9">
-        <f t="shared" si="0"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C8" s="2">
-        <f t="shared" si="1"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D8" s="2">
-        <f t="shared" si="1"/>
-        <v>0.20800000000000002</v>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -3571,19 +3583,16 @@
         <v>13</v>
       </c>
       <c r="B9" s="9">
-        <f t="shared" si="0"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C9" s="2">
-        <f t="shared" si="1"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D9" s="2">
-        <f t="shared" si="1"/>
-        <v>0.20800000000000002</v>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -3591,19 +3600,16 @@
         <v>14</v>
       </c>
       <c r="B10" s="9">
-        <f t="shared" si="0"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C10" s="2">
-        <f t="shared" si="1"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D10" s="2">
-        <f t="shared" si="1"/>
-        <v>0.20800000000000002</v>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -3611,19 +3617,16 @@
         <v>15</v>
       </c>
       <c r="B11" s="9">
-        <f t="shared" si="0"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C11" s="2">
-        <f t="shared" si="1"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D11" s="2">
-        <f t="shared" si="1"/>
-        <v>0.20800000000000002</v>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
@@ -3631,19 +3634,16 @@
         <v>16</v>
       </c>
       <c r="B12" s="9">
-        <f t="shared" si="0"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C12" s="2">
-        <f t="shared" si="1"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D12" s="2">
-        <f t="shared" si="1"/>
-        <v>0.20800000000000002</v>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
@@ -3651,19 +3651,16 @@
         <v>17</v>
       </c>
       <c r="B13" s="9">
-        <f t="shared" si="0"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C13" s="2">
-        <f t="shared" si="1"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D13" s="2">
-        <f t="shared" si="1"/>
-        <v>0.20800000000000002</v>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
@@ -3671,19 +3668,16 @@
         <v>18</v>
       </c>
       <c r="B14" s="9">
-        <f t="shared" si="0"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C14" s="2">
-        <f t="shared" si="1"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D14" s="2">
-        <f t="shared" si="1"/>
-        <v>0.20800000000000002</v>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
@@ -3691,19 +3685,16 @@
         <v>19</v>
       </c>
       <c r="B15" s="9">
-        <f t="shared" si="0"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C15" s="2">
-        <f t="shared" si="1"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D15" s="2">
-        <f t="shared" si="1"/>
-        <v>0.20800000000000002</v>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
@@ -3711,19 +3702,16 @@
         <v>20</v>
       </c>
       <c r="B16" s="9">
-        <f t="shared" si="0"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C16" s="2">
-        <f t="shared" si="1"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D16" s="2">
-        <f t="shared" si="1"/>
-        <v>0.20800000000000002</v>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
@@ -3731,19 +3719,16 @@
         <v>21</v>
       </c>
       <c r="B17" s="9">
-        <f t="shared" si="0"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C17" s="2">
-        <f t="shared" si="1"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D17" s="2">
-        <f t="shared" si="1"/>
-        <v>0.20800000000000002</v>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
@@ -3751,19 +3736,16 @@
         <v>22</v>
       </c>
       <c r="B18" s="9">
-        <f t="shared" si="0"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C18" s="2">
-        <f t="shared" ref="C18:D25" si="2">0.2*1.04</f>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D18" s="2">
-        <f t="shared" si="2"/>
-        <v>0.20800000000000002</v>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
@@ -3771,19 +3753,16 @@
         <v>23</v>
       </c>
       <c r="B19" s="9">
-        <f t="shared" si="0"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C19" s="2">
-        <f t="shared" si="2"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D19" s="2">
-        <f t="shared" si="2"/>
-        <v>0.20800000000000002</v>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
@@ -3791,19 +3770,16 @@
         <v>24</v>
       </c>
       <c r="B20" s="9">
-        <f t="shared" si="0"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C20" s="2">
-        <f t="shared" si="2"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D20" s="2">
-        <f t="shared" si="2"/>
-        <v>0.20800000000000002</v>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
@@ -3811,19 +3787,16 @@
         <v>25</v>
       </c>
       <c r="B21" s="9">
-        <f t="shared" si="0"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C21" s="2">
-        <f t="shared" si="2"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D21" s="2">
-        <f t="shared" si="2"/>
-        <v>0.20800000000000002</v>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
@@ -3831,19 +3804,16 @@
         <v>26</v>
       </c>
       <c r="B22" s="9">
-        <f t="shared" si="0"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C22" s="2">
-        <f t="shared" si="2"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D22" s="2">
-        <f t="shared" si="2"/>
-        <v>0.20800000000000002</v>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
@@ -3851,19 +3821,16 @@
         <v>27</v>
       </c>
       <c r="B23" s="9">
-        <f t="shared" si="0"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C23" s="2">
-        <f t="shared" si="2"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D23" s="2">
-        <f t="shared" si="2"/>
-        <v>0.20800000000000002</v>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D23" s="1">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
@@ -3871,19 +3838,16 @@
         <v>28</v>
       </c>
       <c r="B24" s="9">
-        <f t="shared" si="0"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C24" s="2">
-        <f t="shared" si="2"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D24" s="2">
-        <f t="shared" si="2"/>
-        <v>0.20800000000000002</v>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D24" s="1">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
@@ -3891,36 +3855,30 @@
         <v>29</v>
       </c>
       <c r="B25" s="9">
-        <f t="shared" si="0"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C25" s="2">
-        <f t="shared" si="2"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D25" s="2">
-        <f t="shared" si="2"/>
-        <v>0.20800000000000002</v>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C25" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D25" s="1">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="A2:A25" numberStoredAsText="1"/>
-  </ignoredErrors>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="B2" sqref="B2:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3929,43 +3887,41 @@
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.6328125" customWidth="1"/>
+    <col min="5" max="5" width="55.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="10">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="C2" s="2">
-        <f t="shared" ref="C2:D17" si="0">0.2*1.04</f>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D2" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C2" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -3973,18 +3929,16 @@
         <v>7</v>
       </c>
       <c r="B3" s="10">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="C3" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D3" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -3992,18 +3946,16 @@
         <v>8</v>
       </c>
       <c r="B4" s="10">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="C4" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D4" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -4011,18 +3963,16 @@
         <v>9</v>
       </c>
       <c r="B5" s="10">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="C5" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D5" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -4030,18 +3980,16 @@
         <v>10</v>
       </c>
       <c r="B6" s="10">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="C6" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D6" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -4049,18 +3997,16 @@
         <v>11</v>
       </c>
       <c r="B7" s="10">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="C7" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D7" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -4068,18 +4014,16 @@
         <v>12</v>
       </c>
       <c r="B8" s="10">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="C8" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D8" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -4087,18 +4031,16 @@
         <v>13</v>
       </c>
       <c r="B9" s="10">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="C9" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D9" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C9" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -4106,18 +4048,16 @@
         <v>14</v>
       </c>
       <c r="B10" s="10">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="C10" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D10" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C10" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -4125,18 +4065,16 @@
         <v>15</v>
       </c>
       <c r="B11" s="10">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="C11" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D11" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C11" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
@@ -4144,18 +4082,16 @@
         <v>16</v>
       </c>
       <c r="B12" s="10">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="C12" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D12" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C12" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
@@ -4163,18 +4099,16 @@
         <v>17</v>
       </c>
       <c r="B13" s="10">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="C13" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D13" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C13" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
@@ -4182,18 +4116,16 @@
         <v>18</v>
       </c>
       <c r="B14" s="10">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="C14" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D14" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C14" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D14" s="1">
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
@@ -4201,18 +4133,16 @@
         <v>19</v>
       </c>
       <c r="B15" s="10">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="C15" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D15" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C15" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D15" s="1">
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
@@ -4220,18 +4150,16 @@
         <v>20</v>
       </c>
       <c r="B16" s="10">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="C16" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D16" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C16" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D16" s="1">
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
@@ -4239,18 +4167,16 @@
         <v>21</v>
       </c>
       <c r="B17" s="10">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="C17" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D17" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C17" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D17" s="1">
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
@@ -4258,18 +4184,16 @@
         <v>22</v>
       </c>
       <c r="B18" s="10">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="C18" s="2">
-        <f t="shared" ref="C18:D25" si="1">0.2*1.04</f>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D18" s="2">
-        <f t="shared" si="1"/>
-        <v>0.20800000000000002</v>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C18" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D18" s="1">
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
@@ -4277,18 +4201,16 @@
         <v>23</v>
       </c>
       <c r="B19" s="10">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="C19" s="2">
-        <f t="shared" si="1"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D19" s="2">
-        <f t="shared" si="1"/>
-        <v>0.20800000000000002</v>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C19" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D19" s="1">
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
@@ -4296,18 +4218,16 @@
         <v>24</v>
       </c>
       <c r="B20" s="10">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="C20" s="2">
-        <f t="shared" si="1"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D20" s="2">
-        <f t="shared" si="1"/>
-        <v>0.20800000000000002</v>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C20" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D20" s="1">
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
@@ -4315,18 +4235,16 @@
         <v>25</v>
       </c>
       <c r="B21" s="10">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="C21" s="2">
-        <f t="shared" si="1"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D21" s="2">
-        <f t="shared" si="1"/>
-        <v>0.20800000000000002</v>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C21" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D21" s="1">
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
@@ -4334,18 +4252,16 @@
         <v>26</v>
       </c>
       <c r="B22" s="10">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="C22" s="2">
-        <f t="shared" si="1"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D22" s="2">
-        <f t="shared" si="1"/>
-        <v>0.20800000000000002</v>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C22" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D22" s="1">
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
@@ -4353,18 +4269,16 @@
         <v>27</v>
       </c>
       <c r="B23" s="10">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="C23" s="2">
-        <f t="shared" si="1"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D23" s="2">
-        <f t="shared" si="1"/>
-        <v>0.20800000000000002</v>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C23" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D23" s="1">
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
@@ -4372,18 +4286,16 @@
         <v>28</v>
       </c>
       <c r="B24" s="10">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="C24" s="2">
-        <f t="shared" si="1"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D24" s="2">
-        <f t="shared" si="1"/>
-        <v>0.20800000000000002</v>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C24" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D24" s="1">
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
@@ -4391,18 +4303,16 @@
         <v>29</v>
       </c>
       <c r="B25" s="10">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="C25" s="2">
-        <f t="shared" si="1"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D25" s="2">
-        <f t="shared" si="1"/>
-        <v>0.20800000000000002</v>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C25" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D25" s="1">
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -4412,11 +4322,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4425,504 +4335,432 @@
     <col min="2" max="2" width="7.453125" customWidth="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.6328125" customWidth="1"/>
+    <col min="5" max="5" width="55.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1">
-        <f>0.027/3.6</f>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C2" s="2">
-        <f t="shared" ref="C2:D17" si="0">0.2*1.04</f>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D2" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
+        <v>5</v>
+      </c>
+      <c r="B2" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C2" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1">
-        <f t="shared" ref="B3:B25" si="1">0.027/3.6</f>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C3" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D3" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
+      <c r="B3" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1">
-        <f t="shared" si="1"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C4" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D4" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
+      <c r="B4" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="1">
-        <f t="shared" si="1"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C5" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D5" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
+      <c r="B5" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1">
-        <f t="shared" si="1"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C6" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D6" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
+      <c r="B6" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="1">
-        <f t="shared" si="1"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C7" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D7" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
+      <c r="B7" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="1">
-        <f t="shared" si="1"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C8" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D8" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
+      <c r="B8" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="1">
-        <f t="shared" si="1"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C9" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D9" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
+      <c r="B9" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C9" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="1">
-        <f t="shared" si="1"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C10" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D10" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
+      <c r="B10" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C10" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="1">
-        <f t="shared" si="1"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C11" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D11" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
+      <c r="B11" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C11" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="1">
-        <f t="shared" si="1"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C12" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D12" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
+      <c r="B12" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C12" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="1">
-        <f t="shared" si="1"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C13" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D13" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
+      <c r="B13" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C13" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="1">
-        <f t="shared" si="1"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C14" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D14" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
+      <c r="B14" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C14" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D14" s="1">
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="1">
-        <f t="shared" si="1"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C15" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D15" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
+      <c r="B15" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C15" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D15" s="1">
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="1">
-        <f t="shared" si="1"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C16" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D16" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
+      <c r="B16" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C16" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D16" s="1">
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="1">
-        <f t="shared" si="1"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C17" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D17" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
+      <c r="B17" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C17" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D17" s="1">
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="1">
-        <f t="shared" si="1"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C18" s="2">
-        <f t="shared" ref="C18:D25" si="2">0.2*1.04</f>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D18" s="2">
-        <f t="shared" si="2"/>
-        <v>0.20800000000000002</v>
+      <c r="B18" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C18" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D18" s="1">
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="1">
-        <f t="shared" si="1"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C19" s="2">
-        <f t="shared" si="2"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D19" s="2">
-        <f t="shared" si="2"/>
-        <v>0.20800000000000002</v>
+      <c r="B19" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C19" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D19" s="1">
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="1">
-        <f t="shared" si="1"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C20" s="2">
-        <f t="shared" si="2"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D20" s="2">
-        <f t="shared" si="2"/>
-        <v>0.20800000000000002</v>
+      <c r="B20" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C20" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D20" s="1">
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="1">
-        <f t="shared" si="1"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C21" s="2">
-        <f t="shared" si="2"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D21" s="2">
-        <f t="shared" si="2"/>
-        <v>0.20800000000000002</v>
+      <c r="B21" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C21" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D21" s="1">
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="1">
-        <f t="shared" si="1"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C22" s="2">
-        <f t="shared" si="2"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D22" s="2">
-        <f t="shared" si="2"/>
-        <v>0.20800000000000002</v>
+      <c r="B22" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C22" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D22" s="1">
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="1">
-        <f t="shared" si="1"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C23" s="2">
-        <f t="shared" si="2"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D23" s="2">
-        <f t="shared" si="2"/>
-        <v>0.20800000000000002</v>
+      <c r="B23" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C23" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D23" s="1">
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="1">
-        <f t="shared" si="1"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C24" s="2">
-        <f t="shared" si="2"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D24" s="2">
-        <f t="shared" si="2"/>
-        <v>0.20800000000000002</v>
+      <c r="B24" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C24" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D24" s="1">
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="1">
-        <f t="shared" si="1"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C25" s="2">
-        <f t="shared" si="2"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D25" s="2">
-        <f t="shared" si="2"/>
-        <v>0.20800000000000002</v>
+      <c r="B25" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C25" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D25" s="1">
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -4932,11 +4770,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B25"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4945,43 +4783,41 @@
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.6328125" customWidth="1"/>
+    <col min="5" max="5" width="55.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="8">
-        <v>0.11600000000000001</v>
-      </c>
-      <c r="C2" s="2">
-        <f t="shared" ref="C2:D17" si="0">0.2*1.04</f>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D2" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
+        <v>0.109</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1.4E-2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -4989,18 +4825,16 @@
         <v>7</v>
       </c>
       <c r="B3" s="8">
-        <v>0.11600000000000001</v>
-      </c>
-      <c r="C3" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D3" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
+        <v>0.109</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1.4E-2</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -5008,18 +4842,16 @@
         <v>8</v>
       </c>
       <c r="B4" s="8">
-        <v>0.11600000000000001</v>
-      </c>
-      <c r="C4" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D4" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
+        <v>0.109</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1.4E-2</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -5027,18 +4859,16 @@
         <v>9</v>
       </c>
       <c r="B5" s="8">
-        <v>0.11600000000000001</v>
-      </c>
-      <c r="C5" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D5" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
+        <v>0.109</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1.4E-2</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -5046,18 +4876,16 @@
         <v>10</v>
       </c>
       <c r="B6" s="8">
-        <v>0.11600000000000001</v>
-      </c>
-      <c r="C6" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D6" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
+        <v>0.109</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1.4E-2</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -5065,18 +4893,16 @@
         <v>11</v>
       </c>
       <c r="B7" s="8">
-        <v>0.11600000000000001</v>
-      </c>
-      <c r="C7" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D7" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
+        <v>0.109</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1.4E-2</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -5084,18 +4910,16 @@
         <v>12</v>
       </c>
       <c r="B8" s="8">
-        <v>0.11600000000000001</v>
-      </c>
-      <c r="C8" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D8" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
+        <v>0.109</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1.4E-2</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -5103,18 +4927,16 @@
         <v>13</v>
       </c>
       <c r="B9" s="8">
-        <v>0.11600000000000001</v>
-      </c>
-      <c r="C9" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D9" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
+        <v>0.109</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1.4E-2</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -5122,18 +4944,16 @@
         <v>14</v>
       </c>
       <c r="B10" s="8">
-        <v>0.11600000000000001</v>
-      </c>
-      <c r="C10" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D10" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
+        <v>0.109</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1.4E-2</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -5141,18 +4961,16 @@
         <v>15</v>
       </c>
       <c r="B11" s="8">
-        <v>0.11600000000000001</v>
-      </c>
-      <c r="C11" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D11" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
+        <v>0.109</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1.4E-2</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
@@ -5160,18 +4978,16 @@
         <v>16</v>
       </c>
       <c r="B12" s="8">
-        <v>0.11600000000000001</v>
-      </c>
-      <c r="C12" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D12" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
+        <v>0.109</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1.4E-2</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
@@ -5179,18 +4995,16 @@
         <v>17</v>
       </c>
       <c r="B13" s="8">
-        <v>0.11600000000000001</v>
-      </c>
-      <c r="C13" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D13" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
+        <v>0.109</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1.4E-2</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
@@ -5198,18 +5012,16 @@
         <v>18</v>
       </c>
       <c r="B14" s="8">
-        <v>0.11600000000000001</v>
-      </c>
-      <c r="C14" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D14" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
+        <v>0.109</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1.4E-2</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
@@ -5217,18 +5029,16 @@
         <v>19</v>
       </c>
       <c r="B15" s="8">
-        <v>0.11600000000000001</v>
-      </c>
-      <c r="C15" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D15" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
+        <v>0.109</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1.4E-2</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
@@ -5236,18 +5046,16 @@
         <v>20</v>
       </c>
       <c r="B16" s="8">
-        <v>0.11600000000000001</v>
-      </c>
-      <c r="C16" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D16" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
+        <v>0.109</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1.4E-2</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
@@ -5255,18 +5063,16 @@
         <v>21</v>
       </c>
       <c r="B17" s="8">
-        <v>0.11600000000000001</v>
-      </c>
-      <c r="C17" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D17" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
+        <v>0.109</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1.4E-2</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
@@ -5274,18 +5080,16 @@
         <v>22</v>
       </c>
       <c r="B18" s="8">
-        <v>0.11600000000000001</v>
-      </c>
-      <c r="C18" s="2">
-        <f t="shared" ref="C18:D25" si="1">0.2*1.04</f>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D18" s="2">
-        <f t="shared" si="1"/>
-        <v>0.20800000000000002</v>
+        <v>0.109</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1.4E-2</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
@@ -5293,18 +5097,16 @@
         <v>23</v>
       </c>
       <c r="B19" s="8">
-        <v>0.11600000000000001</v>
-      </c>
-      <c r="C19" s="2">
-        <f t="shared" si="1"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D19" s="2">
-        <f t="shared" si="1"/>
-        <v>0.20800000000000002</v>
+        <v>0.109</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1.4E-2</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
@@ -5312,18 +5114,16 @@
         <v>24</v>
       </c>
       <c r="B20" s="8">
-        <v>0.11600000000000001</v>
-      </c>
-      <c r="C20" s="2">
-        <f t="shared" si="1"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D20" s="2">
-        <f t="shared" si="1"/>
-        <v>0.20800000000000002</v>
+        <v>0.109</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1.4E-2</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
@@ -5331,18 +5131,16 @@
         <v>25</v>
       </c>
       <c r="B21" s="8">
-        <v>0.11600000000000001</v>
-      </c>
-      <c r="C21" s="2">
-        <f t="shared" si="1"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D21" s="2">
-        <f t="shared" si="1"/>
-        <v>0.20800000000000002</v>
+        <v>0.109</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1.4E-2</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
@@ -5350,18 +5148,16 @@
         <v>26</v>
       </c>
       <c r="B22" s="8">
-        <v>0.11600000000000001</v>
-      </c>
-      <c r="C22" s="2">
-        <f t="shared" si="1"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D22" s="2">
-        <f t="shared" si="1"/>
-        <v>0.20800000000000002</v>
+        <v>0.109</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1.4E-2</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
@@ -5369,18 +5165,16 @@
         <v>27</v>
       </c>
       <c r="B23" s="8">
-        <v>0.11600000000000001</v>
-      </c>
-      <c r="C23" s="2">
-        <f t="shared" si="1"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D23" s="2">
-        <f t="shared" si="1"/>
-        <v>0.20800000000000002</v>
+        <v>0.109</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1.4E-2</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
@@ -5388,18 +5182,16 @@
         <v>28</v>
       </c>
       <c r="B24" s="8">
-        <v>0.11600000000000001</v>
-      </c>
-      <c r="C24" s="2">
-        <f t="shared" si="1"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D24" s="2">
-        <f t="shared" si="1"/>
-        <v>0.20800000000000002</v>
+        <v>0.109</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1.4E-2</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
@@ -5407,18 +5199,16 @@
         <v>29</v>
       </c>
       <c r="B25" s="8">
-        <v>0.11600000000000001</v>
-      </c>
-      <c r="C25" s="2">
-        <f t="shared" si="1"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D25" s="2">
-        <f t="shared" si="1"/>
-        <v>0.20800000000000002</v>
+        <v>0.109</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1.4E-2</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -5428,954 +5218,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="5.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="68.1796875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="8">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="C2" s="2">
-        <f>0.08*1.04</f>
-        <v>8.320000000000001E-2</v>
-      </c>
-      <c r="D2" s="2">
-        <f>0.08*1.04</f>
-        <v>8.320000000000001E-2</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="8">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="C3" s="2">
-        <f t="shared" ref="C3:D25" si="0">0.08*1.04</f>
-        <v>8.320000000000001E-2</v>
-      </c>
-      <c r="D3" s="2">
-        <f t="shared" si="0"/>
-        <v>8.320000000000001E-2</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="8">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="C4" s="2">
-        <f t="shared" si="0"/>
-        <v>8.320000000000001E-2</v>
-      </c>
-      <c r="D4" s="2">
-        <f t="shared" si="0"/>
-        <v>8.320000000000001E-2</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="8">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="C5" s="2">
-        <f t="shared" si="0"/>
-        <v>8.320000000000001E-2</v>
-      </c>
-      <c r="D5" s="2">
-        <f t="shared" si="0"/>
-        <v>8.320000000000001E-2</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="8">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="C6" s="2">
-        <f t="shared" si="0"/>
-        <v>8.320000000000001E-2</v>
-      </c>
-      <c r="D6" s="2">
-        <f t="shared" si="0"/>
-        <v>8.320000000000001E-2</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="8">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="C7" s="2">
-        <f t="shared" si="0"/>
-        <v>8.320000000000001E-2</v>
-      </c>
-      <c r="D7" s="2">
-        <f t="shared" si="0"/>
-        <v>8.320000000000001E-2</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="8">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="C8" s="2">
-        <f t="shared" si="0"/>
-        <v>8.320000000000001E-2</v>
-      </c>
-      <c r="D8" s="2">
-        <f t="shared" si="0"/>
-        <v>8.320000000000001E-2</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="8">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="C9" s="2">
-        <f t="shared" si="0"/>
-        <v>8.320000000000001E-2</v>
-      </c>
-      <c r="D9" s="2">
-        <f t="shared" si="0"/>
-        <v>8.320000000000001E-2</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="8">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="C10" s="2">
-        <f t="shared" si="0"/>
-        <v>8.320000000000001E-2</v>
-      </c>
-      <c r="D10" s="2">
-        <f t="shared" si="0"/>
-        <v>8.320000000000001E-2</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="8">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="C11" s="2">
-        <f t="shared" si="0"/>
-        <v>8.320000000000001E-2</v>
-      </c>
-      <c r="D11" s="2">
-        <f t="shared" si="0"/>
-        <v>8.320000000000001E-2</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="8">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="C12" s="2">
-        <f t="shared" si="0"/>
-        <v>8.320000000000001E-2</v>
-      </c>
-      <c r="D12" s="2">
-        <f t="shared" si="0"/>
-        <v>8.320000000000001E-2</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="8">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="C13" s="2">
-        <f t="shared" si="0"/>
-        <v>8.320000000000001E-2</v>
-      </c>
-      <c r="D13" s="2">
-        <f t="shared" si="0"/>
-        <v>8.320000000000001E-2</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="8">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="C14" s="2">
-        <f t="shared" si="0"/>
-        <v>8.320000000000001E-2</v>
-      </c>
-      <c r="D14" s="2">
-        <f t="shared" si="0"/>
-        <v>8.320000000000001E-2</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="8">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="C15" s="2">
-        <f t="shared" si="0"/>
-        <v>8.320000000000001E-2</v>
-      </c>
-      <c r="D15" s="2">
-        <f t="shared" si="0"/>
-        <v>8.320000000000001E-2</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="8">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="C16" s="2">
-        <f t="shared" si="0"/>
-        <v>8.320000000000001E-2</v>
-      </c>
-      <c r="D16" s="2">
-        <f t="shared" si="0"/>
-        <v>8.320000000000001E-2</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="8">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="C17" s="2">
-        <f t="shared" si="0"/>
-        <v>8.320000000000001E-2</v>
-      </c>
-      <c r="D17" s="2">
-        <f t="shared" si="0"/>
-        <v>8.320000000000001E-2</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="8">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="C18" s="2">
-        <f t="shared" si="0"/>
-        <v>8.320000000000001E-2</v>
-      </c>
-      <c r="D18" s="2">
-        <f t="shared" si="0"/>
-        <v>8.320000000000001E-2</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="8">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="C19" s="2">
-        <f t="shared" si="0"/>
-        <v>8.320000000000001E-2</v>
-      </c>
-      <c r="D19" s="2">
-        <f t="shared" si="0"/>
-        <v>8.320000000000001E-2</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="8">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="C20" s="2">
-        <f t="shared" si="0"/>
-        <v>8.320000000000001E-2</v>
-      </c>
-      <c r="D20" s="2">
-        <f t="shared" si="0"/>
-        <v>8.320000000000001E-2</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="8">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="C21" s="2">
-        <f t="shared" si="0"/>
-        <v>8.320000000000001E-2</v>
-      </c>
-      <c r="D21" s="2">
-        <f t="shared" si="0"/>
-        <v>8.320000000000001E-2</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="8">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="C22" s="2">
-        <f t="shared" si="0"/>
-        <v>8.320000000000001E-2</v>
-      </c>
-      <c r="D22" s="2">
-        <f t="shared" si="0"/>
-        <v>8.320000000000001E-2</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="8">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="C23" s="2">
-        <f t="shared" si="0"/>
-        <v>8.320000000000001E-2</v>
-      </c>
-      <c r="D23" s="2">
-        <f t="shared" si="0"/>
-        <v>8.320000000000001E-2</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="8">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="C24" s="2">
-        <f t="shared" si="0"/>
-        <v>8.320000000000001E-2</v>
-      </c>
-      <c r="D24" s="2">
-        <f t="shared" si="0"/>
-        <v>8.320000000000001E-2</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="8">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="C25" s="2">
-        <f t="shared" si="0"/>
-        <v>8.320000000000001E-2</v>
-      </c>
-      <c r="D25" s="2">
-        <f t="shared" si="0"/>
-        <v>8.320000000000001E-2</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="5.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="68.1796875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="8">
-        <v>6.6820000000000004E-2</v>
-      </c>
-      <c r="C2" s="6">
-        <v>0.09</v>
-      </c>
-      <c r="D2" s="6">
-        <v>0.09</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="8">
-        <v>6.6820000000000004E-2</v>
-      </c>
-      <c r="C3" s="6">
-        <v>0.09</v>
-      </c>
-      <c r="D3" s="6">
-        <v>0.09</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="8">
-        <v>6.6820000000000004E-2</v>
-      </c>
-      <c r="C4" s="6">
-        <v>0.09</v>
-      </c>
-      <c r="D4" s="6">
-        <v>0.09</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="8">
-        <v>6.6820000000000004E-2</v>
-      </c>
-      <c r="C5" s="6">
-        <v>0.09</v>
-      </c>
-      <c r="D5" s="6">
-        <v>0.09</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="8">
-        <v>6.6820000000000004E-2</v>
-      </c>
-      <c r="C6" s="6">
-        <v>0.09</v>
-      </c>
-      <c r="D6" s="6">
-        <v>0.09</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="8">
-        <v>6.6820000000000004E-2</v>
-      </c>
-      <c r="C7" s="6">
-        <v>0.09</v>
-      </c>
-      <c r="D7" s="6">
-        <v>0.09</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="8">
-        <v>6.6820000000000004E-2</v>
-      </c>
-      <c r="C8" s="6">
-        <v>0.09</v>
-      </c>
-      <c r="D8" s="6">
-        <v>0.09</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="8">
-        <v>6.6820000000000004E-2</v>
-      </c>
-      <c r="C9" s="6">
-        <v>0.09</v>
-      </c>
-      <c r="D9" s="6">
-        <v>0.09</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="8">
-        <v>6.6820000000000004E-2</v>
-      </c>
-      <c r="C10" s="6">
-        <v>0.09</v>
-      </c>
-      <c r="D10" s="6">
-        <v>0.09</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="8">
-        <v>6.6820000000000004E-2</v>
-      </c>
-      <c r="C11" s="6">
-        <v>0.09</v>
-      </c>
-      <c r="D11" s="6">
-        <v>0.09</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="8">
-        <v>6.6820000000000004E-2</v>
-      </c>
-      <c r="C12" s="6">
-        <v>0.09</v>
-      </c>
-      <c r="D12" s="6">
-        <v>0.09</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="8">
-        <v>6.6820000000000004E-2</v>
-      </c>
-      <c r="C13" s="6">
-        <v>0.09</v>
-      </c>
-      <c r="D13" s="6">
-        <v>0.09</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="8">
-        <v>6.6820000000000004E-2</v>
-      </c>
-      <c r="C14" s="6">
-        <v>0.09</v>
-      </c>
-      <c r="D14" s="6">
-        <v>0.09</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="8">
-        <v>6.6820000000000004E-2</v>
-      </c>
-      <c r="C15" s="6">
-        <v>0.09</v>
-      </c>
-      <c r="D15" s="6">
-        <v>0.09</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="8">
-        <v>6.6820000000000004E-2</v>
-      </c>
-      <c r="C16" s="6">
-        <v>0.09</v>
-      </c>
-      <c r="D16" s="6">
-        <v>0.09</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="8">
-        <v>6.6820000000000004E-2</v>
-      </c>
-      <c r="C17" s="6">
-        <v>0.09</v>
-      </c>
-      <c r="D17" s="6">
-        <v>0.09</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="8">
-        <v>6.6820000000000004E-2</v>
-      </c>
-      <c r="C18" s="6">
-        <v>0.09</v>
-      </c>
-      <c r="D18" s="6">
-        <v>0.09</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="8">
-        <v>6.6820000000000004E-2</v>
-      </c>
-      <c r="C19" s="6">
-        <v>0.09</v>
-      </c>
-      <c r="D19" s="6">
-        <v>0.09</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="8">
-        <v>6.6820000000000004E-2</v>
-      </c>
-      <c r="C20" s="6">
-        <v>0.09</v>
-      </c>
-      <c r="D20" s="6">
-        <v>0.09</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="8">
-        <v>6.6820000000000004E-2</v>
-      </c>
-      <c r="C21" s="6">
-        <v>0.09</v>
-      </c>
-      <c r="D21" s="6">
-        <v>0.09</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="8">
-        <v>6.6820000000000004E-2</v>
-      </c>
-      <c r="C22" s="6">
-        <v>0.09</v>
-      </c>
-      <c r="D22" s="6">
-        <v>0.09</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="8">
-        <v>6.6820000000000004E-2</v>
-      </c>
-      <c r="C23" s="6">
-        <v>0.09</v>
-      </c>
-      <c r="D23" s="6">
-        <v>0.09</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="8">
-        <v>6.6820000000000004E-2</v>
-      </c>
-      <c r="C24" s="6">
-        <v>0.09</v>
-      </c>
-      <c r="D24" s="6">
-        <v>0.09</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="8">
-        <v>6.6820000000000004E-2</v>
-      </c>
-      <c r="C25" s="6">
-        <v>0.09</v>
-      </c>
-      <c r="D25" s="6">
-        <v>0.09</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="A2:A10" numberStoredAsText="1"/>
-  </ignoredErrors>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6393,36 +5236,36 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="8">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="C2" s="6">
-        <v>0.17</v>
-      </c>
-      <c r="D2" s="6">
-        <v>0.17</v>
+        <v>0.08</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.187</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.187</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -6430,16 +5273,16 @@
         <v>7</v>
       </c>
       <c r="B3" s="8">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="C3" s="6">
-        <v>0.17</v>
-      </c>
-      <c r="D3" s="6">
-        <v>0.17</v>
+        <v>0.08</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.187</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.187</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -6447,16 +5290,16 @@
         <v>8</v>
       </c>
       <c r="B4" s="8">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="C4" s="6">
-        <v>0.17</v>
-      </c>
-      <c r="D4" s="6">
-        <v>0.17</v>
+        <v>0.08</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.187</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.187</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -6464,16 +5307,16 @@
         <v>9</v>
       </c>
       <c r="B5" s="8">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="C5" s="6">
-        <v>0.17</v>
-      </c>
-      <c r="D5" s="6">
-        <v>0.17</v>
+        <v>0.08</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.187</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.187</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -6481,16 +5324,16 @@
         <v>10</v>
       </c>
       <c r="B6" s="8">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="C6" s="6">
-        <v>0.17</v>
-      </c>
-      <c r="D6" s="6">
-        <v>0.17</v>
+        <v>0.08</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.187</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.187</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -6498,16 +5341,16 @@
         <v>11</v>
       </c>
       <c r="B7" s="8">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="C7" s="6">
-        <v>0.17</v>
-      </c>
-      <c r="D7" s="6">
-        <v>0.17</v>
+        <v>0.08</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.187</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.187</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -6515,16 +5358,16 @@
         <v>12</v>
       </c>
       <c r="B8" s="8">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="C8" s="6">
-        <v>0.17</v>
-      </c>
-      <c r="D8" s="6">
-        <v>0.17</v>
+        <v>0.08</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.187</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.187</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -6532,16 +5375,16 @@
         <v>13</v>
       </c>
       <c r="B9" s="8">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="C9" s="6">
-        <v>0.17</v>
-      </c>
-      <c r="D9" s="6">
-        <v>0.17</v>
+        <v>0.08</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.187</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.187</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -6549,16 +5392,16 @@
         <v>14</v>
       </c>
       <c r="B10" s="8">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="C10" s="6">
-        <v>0.17</v>
-      </c>
-      <c r="D10" s="6">
-        <v>0.17</v>
+        <v>0.08</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.187</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.187</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -6566,16 +5409,16 @@
         <v>15</v>
       </c>
       <c r="B11" s="8">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="C11" s="6">
-        <v>0.17</v>
-      </c>
-      <c r="D11" s="6">
-        <v>0.17</v>
+        <v>0.08</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.187</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.187</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
@@ -6583,16 +5426,16 @@
         <v>16</v>
       </c>
       <c r="B12" s="8">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="C12" s="6">
-        <v>0.17</v>
-      </c>
-      <c r="D12" s="6">
-        <v>0.17</v>
+        <v>0.08</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.187</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.187</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
@@ -6600,16 +5443,16 @@
         <v>17</v>
       </c>
       <c r="B13" s="8">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="C13" s="6">
-        <v>0.17</v>
-      </c>
-      <c r="D13" s="6">
-        <v>0.17</v>
+        <v>0.08</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.187</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.187</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
@@ -6617,16 +5460,16 @@
         <v>18</v>
       </c>
       <c r="B14" s="8">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="C14" s="6">
-        <v>0.17</v>
-      </c>
-      <c r="D14" s="6">
-        <v>0.17</v>
+        <v>0.08</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.187</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.187</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
@@ -6634,16 +5477,16 @@
         <v>19</v>
       </c>
       <c r="B15" s="8">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="C15" s="6">
-        <v>0.17</v>
-      </c>
-      <c r="D15" s="6">
-        <v>0.17</v>
+        <v>0.08</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.187</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.187</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
@@ -6651,16 +5494,16 @@
         <v>20</v>
       </c>
       <c r="B16" s="8">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="C16" s="6">
-        <v>0.17</v>
-      </c>
-      <c r="D16" s="6">
-        <v>0.17</v>
+        <v>0.08</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.187</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.187</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
@@ -6668,16 +5511,16 @@
         <v>21</v>
       </c>
       <c r="B17" s="8">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="C17" s="6">
-        <v>0.17</v>
-      </c>
-      <c r="D17" s="6">
-        <v>0.17</v>
+        <v>0.08</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.187</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.187</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
@@ -6685,16 +5528,16 @@
         <v>22</v>
       </c>
       <c r="B18" s="8">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="C18" s="6">
-        <v>0.17</v>
-      </c>
-      <c r="D18" s="6">
-        <v>0.17</v>
+        <v>0.08</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.187</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.187</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
@@ -6702,16 +5545,16 @@
         <v>23</v>
       </c>
       <c r="B19" s="8">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="C19" s="6">
-        <v>0.17</v>
-      </c>
-      <c r="D19" s="6">
-        <v>0.17</v>
+        <v>0.08</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.187</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.187</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
@@ -6719,16 +5562,16 @@
         <v>24</v>
       </c>
       <c r="B20" s="8">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="C20" s="6">
-        <v>0.17</v>
-      </c>
-      <c r="D20" s="6">
-        <v>0.17</v>
+        <v>0.08</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.187</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.187</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
@@ -6736,16 +5579,16 @@
         <v>25</v>
       </c>
       <c r="B21" s="8">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="C21" s="6">
-        <v>0.17</v>
-      </c>
-      <c r="D21" s="6">
-        <v>0.17</v>
+        <v>0.08</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.187</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.187</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
@@ -6753,16 +5596,16 @@
         <v>26</v>
       </c>
       <c r="B22" s="8">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="C22" s="6">
-        <v>0.17</v>
-      </c>
-      <c r="D22" s="6">
-        <v>0.17</v>
+        <v>0.08</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.187</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.187</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
@@ -6770,16 +5613,16 @@
         <v>27</v>
       </c>
       <c r="B23" s="8">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="C23" s="6">
-        <v>0.17</v>
-      </c>
-      <c r="D23" s="6">
-        <v>0.17</v>
+        <v>0.08</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.187</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.187</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
@@ -6787,16 +5630,16 @@
         <v>28</v>
       </c>
       <c r="B24" s="8">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="C24" s="6">
-        <v>0.17</v>
-      </c>
-      <c r="D24" s="6">
-        <v>0.17</v>
+        <v>0.08</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.187</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.187</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
@@ -6804,60 +5647,953 @@
         <v>29</v>
       </c>
       <c r="B25" s="8">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="C25" s="6">
-        <v>0.17</v>
-      </c>
-      <c r="D25" s="6">
-        <v>0.17</v>
+        <v>0.08</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.187</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.187</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="A2:A25" numberStoredAsText="1"/>
-  </ignoredErrors>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="68.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="8">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="8">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="8">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="8">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="8">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="8">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="8">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="8">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="8">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="8">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="8">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="8">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="8">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="8">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="C15" s="6">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="D15" s="6">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="8">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="C16" s="6">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="8">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="8">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="C18" s="6">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="8">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="C19" s="6">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="D19" s="6">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="8">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="C20" s="6">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="D20" s="6">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="8">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="C21" s="6">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="D21" s="6">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="8">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="C22" s="6">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="D22" s="6">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="8">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="C23" s="6">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="D23" s="6">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="8">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="C24" s="6">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="D24" s="6">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="8">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="C25" s="6">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="D25" s="6">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="68.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="8">
+        <v>2.7E-2</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="8">
+        <v>2.7E-2</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="8">
+        <v>2.7E-2</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="8">
+        <v>2.7E-2</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="8">
+        <v>2.7E-2</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="8">
+        <v>2.7E-2</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="8">
+        <v>2.7E-2</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="8">
+        <v>2.7E-2</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="8">
+        <v>2.7E-2</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="8">
+        <v>2.7E-2</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="8">
+        <v>2.7E-2</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="8">
+        <v>2.7E-2</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="8">
+        <v>2.7E-2</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="8">
+        <v>2.7E-2</v>
+      </c>
+      <c r="C15" s="6">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="D15" s="6">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="8">
+        <v>2.7E-2</v>
+      </c>
+      <c r="C16" s="6">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="8">
+        <v>2.7E-2</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="8">
+        <v>2.7E-2</v>
+      </c>
+      <c r="C18" s="6">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="8">
+        <v>2.7E-2</v>
+      </c>
+      <c r="C19" s="6">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="D19" s="6">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="8">
+        <v>2.7E-2</v>
+      </c>
+      <c r="C20" s="6">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="D20" s="6">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="8">
+        <v>2.7E-2</v>
+      </c>
+      <c r="C21" s="6">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="D21" s="6">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="8">
+        <v>2.7E-2</v>
+      </c>
+      <c r="C22" s="6">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="D22" s="6">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="8">
+        <v>2.7E-2</v>
+      </c>
+      <c r="C23" s="6">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="D23" s="6">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="8">
+        <v>2.7E-2</v>
+      </c>
+      <c r="C24" s="6">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="D24" s="6">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="8">
+        <v>2.7E-2</v>
+      </c>
+      <c r="C25" s="6">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="D25" s="6">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A02741DB-134D-E94D-94DB-BAA0328F82C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="5" max="5" width="94.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="8">
         <v>5.0000000000000001E-3</v>
@@ -6869,7 +6605,7 @@
         <v>0.17</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -6886,7 +6622,7 @@
         <v>0.17</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -6903,7 +6639,7 @@
         <v>0.17</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -6920,7 +6656,7 @@
         <v>0.17</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -6937,7 +6673,7 @@
         <v>0.17</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -6954,7 +6690,7 @@
         <v>0.17</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -6971,7 +6707,7 @@
         <v>0.17</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -6988,7 +6724,7 @@
         <v>0.17</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -7005,7 +6741,7 @@
         <v>0.17</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -7022,7 +6758,7 @@
         <v>0.17</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
@@ -7039,7 +6775,7 @@
         <v>0.17</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
@@ -7056,7 +6792,7 @@
         <v>0.17</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
@@ -7073,7 +6809,7 @@
         <v>0.17</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
@@ -7090,7 +6826,7 @@
         <v>0.17</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
@@ -7107,7 +6843,7 @@
         <v>0.17</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
@@ -7124,7 +6860,7 @@
         <v>0.17</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
@@ -7141,7 +6877,7 @@
         <v>0.17</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
@@ -7158,7 +6894,7 @@
         <v>0.17</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
@@ -7175,7 +6911,7 @@
         <v>0.17</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
@@ -7192,7 +6928,7 @@
         <v>0.17</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
@@ -7209,7 +6945,7 @@
         <v>0.17</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
@@ -7226,7 +6962,7 @@
         <v>0.17</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
@@ -7243,7 +6979,7 @@
         <v>0.17</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
@@ -7260,7 +6996,7 @@
         <v>0.17</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
